--- a/workout diet lipocavitation 1-4-2021 to 1-25-2021 Worksheet.xlsx
+++ b/workout diet lipocavitation 1-4-2021 to 1-25-2021 Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\workout lipocavitation diet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AC641-AD93-40A3-885D-252BD31D86AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18110B36-7D36-4384-AB00-139AB9BE5514}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="researchMeasures" sheetId="1" r:id="rId1"/>
@@ -1648,10 +1648,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY29"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O1" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="AB26" sqref="AB26"/>
+      <selection pane="bottomLeft" activeCell="AW23" sqref="AW23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5204,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="AW23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23">
         <v>1</v>
@@ -5278,7 +5278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2545FD9-B711-476E-9B85-1CFF4D19B5BA}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
